--- a/navigation.xlsx
+++ b/navigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>文件名</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>Java环境变量生成</t>
+  </si>
+  <si>
+    <t>play0.html</t>
+  </si>
+  <si>
+    <t>视频播放</t>
+  </si>
+  <si>
+    <t>play1.html</t>
+  </si>
+  <si>
+    <t>play2.html</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +140,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -602,148 +607,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1 I11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1232,6 +1237,39 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/navigation.xlsx
+++ b/navigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>文件名</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>play2.html</t>
+  </si>
+  <si>
+    <t>mysql.html</t>
+  </si>
+  <si>
+    <t>mysql命令行安装</t>
+  </si>
+  <si>
+    <t>mysql1.html</t>
+  </si>
+  <si>
+    <t>mysql命令行安装备份</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1270,6 +1282,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/navigation.xlsx
+++ b/navigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>文件名</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>mysql命令行安装备份</t>
+  </si>
+  <si>
+    <t>currenttime.html</t>
+  </si>
+  <si>
+    <t>当前的时间</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1304,6 +1310,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/navigation.xlsx
+++ b/navigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>文件名</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>当前的时间</t>
+  </si>
+  <si>
+    <t>random_nihaowu.html</t>
+  </si>
+  <si>
+    <t>弹幕墙</t>
+  </si>
+  <si>
+    <t>randomnihaowu.html</t>
+  </si>
+  <si>
+    <t>随即一句</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1321,6 +1333,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/navigation.xlsx
+++ b/navigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>文件名</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>随即一句</t>
+  </si>
+  <si>
+    <t>yasuo.html</t>
+  </si>
+  <si>
+    <t>但幕墙2</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1355,6 +1361,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
